--- a/500all/speech_level/speeches_CHRG-114hhrg99388.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99388.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,24 +52,15 @@
     <t>412558</t>
   </si>
   <si>
-    <t>Michelle Lujan Grisham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you, Mr. Chairman, and welcome, Chief Weller. I, too, appreciate that we are having a hearing on how to be more innovative and how to do that in a way that incentivizes ranchers and farmers, because clearly we need their participation. In fact, they are a very effective, willing partner here because they recognize the value of effective conservation programs.    Frankly, as I am preaching to the choir, I am sure farmers and ranchers are the backbone of conservation in America. They depend on the land for their livelihoods and seek to leave it better than they found it. I don't believe that anyone cares more about the land than farmers and ranchers. Farmers and ranchers across the country have sought to protect water quality, soil, agriculture productivity, forest management, and air quality by using tools available through the farm bill. Specifically, USDA's Natural Resources Conservation Service.    I have often mentioned the inadequate rainfall and drought conditions in my home State of New Mexico, and in the Southwest. Fortunately, there are conservation tools available to help southwestern producers cope with these dire situations. I have heard from several New Mexico producers that the Conservation Stewardship Program, which pays producers to adopt conservation activities to improve working lands, is helping to keep many farmers and ranchers on their lands and in business during the past drought. The most recent dire drought has been about 5 years, but we expect drought conditions to continue for decades longer.    In addition, the Regional Conservation Partnership Program, RCPP, which was created in the 2014 Farm Bill, has allowed the New Mexico Association of Conservation Districts to work with the New Mexico Acequia Association, and several New Mexico land-grants to restore historic acequias on agricultural lands, and maybe for some of the folks on the Committee and our viewers today, acequias are a traditional way of bringing water in arid communities, and it is directly from Spain, that irrigation method. This project helps improve water quantity and quality, and supports local families and communities served by the acequia system. I am looking forward to hearing more about conservation efforts that we can explore to help address water shortages and improve water quality.    Soils and soil health have been a recent topic of conversation, with last year being the International Year of Soils. This resource is critical to the health of the country and production of a quality food supply, and I thank the NRCS for promoting the issue. Our soils will be a valuable part of any future plans to combat global climate change. They have the tremendous ability to store carbon, and will only become more valuable in the future. I look forward to hearing from Chief Weller on ways to capitalize on this underused carbon sink.    One project I am excited to hear more about in New Mexico is the Innovative Tribal Conservation and GHG Management Project, which is part of the RCPP under the farm bill. Conservation really is an unsung hero when we think about American agriculture. Voluntary conservation programs through the farm bill are key to helping our farmers and ranchers succeed and to keep protecting our natural resources.    Again, I want to thank the Chairman for holding today's hearing, and I am certainly looking forward to hearing from the witnesses. Thank you.    The Chairman. I thank the gentlelady.    I now recognize the Ranking Member of the full Agriculture Committee, Mr. Peterson, for an opening statement.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Peterson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman. I will be brief. I want to thank you and the Ranking Member for holding this hearing.    The farm bill's conservation programs provide necessary tools for farmers and ranchers that preserve our natural resources and help us meet regulatory requirements. I have been a long-time supporter of voluntary conservation efforts, and these efforts have been useful in my area in a number of different ways.    One of the things I have been trying to do is get folks to understand that if we do drainage water management in the right way, we can not only do a better job of managing the water, but also get environmental benefits from being able to do this. In my part of the world, we have this flooding going on in the Red River Valley, and whenever we have a flood, it just goes across land and washes everything out and it all goes in the river, and it is a big mess. One thing I am trying to get people to look at is the benefits we can get if we do pattern tiling, where we try to manage this water underneath the ground instead of over top of the ground. We have a witness from my district here to explain that to people today, and I thank the Chairman for including that person. Also, we are going to, potentially, have a field listening session up in our part of the world to further explore this, so I appreciate the opportunity to have those folks here, and Chief, we are looking forward to your testimony. Welcome to the Committee.    The Chairman. I thank the gentleman. The chair requests that other Members submit their opening statements for the record so that the witnesses can begin their testimony to ensure that there is ample time for questions. The chair would also like to remind Members that they will be recognized for questioning in the order of seniority for Members who were present at the start of the hearing. After that, Members will be recognized in order of their arrival. I appreciate the Members' understanding.    Once again, Chief, thank you so much, I know it is difficult carving time out of what are busy days to be able to come here and to join us. Once again, I am pleased to welcome Chief Jason Weller, Natural Resources Conservation Service, U.S. Department of Agriculture, to the table, and Chief Weller, please go ahead and begin when you are ready. We have waived the normal 5 minutes of time to give you adequate time to present the information that you have before us.    So go ahead and begin when you are ready.</t>
   </si>
   <si>
-    <t>Weller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weller. Good afternoon, Mr. Chairman, Ms. Lujan Grisham, and Members of the Committee. It is good to see you all again. I am really excited to be here today and I really commend the Committee. Mr. Chairman, the opportunity you are affording NRCS, but also the other witnesses here, to talk about all the really positive contributions that farmers and ranchers are making, and how much innovation is occurring right now in the private lands voluntary incentive-based conservation arena. It is unprecedented, and I hope to be able to touch upon it really briefly in my presentation, and I also very much appreciate your forbearance here to allow me to extend my remarks a few minutes and actually share with the Committee some slides that I have put together. This is, I guess, a fallout from the last hearing we had with you and the Committee on the soil health topic. This is really an expansion on that topic.    The way this is organized--and this has been really difficult for me because, in part, there is so much I want to talk about and there are so many awesome things that are happening right now. To get this condensed down to 10 minutes is pretty hard to do, so I am going to do my best.    This is grouped into three topic areas. First, is next level upgrade for science, next level upgrade for tools, and then next level upgrade for partnerships. And all of you talked about this in your opening statements, really touched upon what is happening in these three areas of science, tools, and partnerships.    NRCS started, as you know, over 80 years ago in the wake of the Dust Bowl, and we were at the very beginning, the very genesis, the first chief, Hugh Hammond Bennett, Dr. Bennett created a Soil Conservation Service. We were known as a technical, science-based agency, and what we shared was that scientific knowledge with that farmer and rancher to better manage, initially, their soils. It is really, then incumbent upon us to stay current with current edge of the science, state of the science, and continue to share that technical knowledge. And really, in everything that we do, whether it is through a program, through a conservation plan, it is sharing and imparting that technical knowledge on the landscape.    Really, what we are very focused on at NRCS then is ensuring we are not just current, state of the art, but even leading edge in many cases on the current state of agronomic and conservation science.    An example of what we have been working with our partners from edufield monitoring systems where we are really trying to understand beyond modeling--we are really trying to understand what is actually happening in real world agriculture and real world environments. When you put in place different crop rotation systems, residue management systems, tilling practices, nutrient management practices, what happens when you compare a treated field and an untreated field side by side? What happens to the surface water, and importantly, maybe you have installed a biorack as part of your ag drainage water management system. What happens to that tile water coming out of the line? Then over time, we can really scientifically, credibly understand when you tweak and manage your crop fields better, what is the ultimate result? Beyond something modeled, you are actually getting real world information, which you can then feed back to that land owner, to that customer, to that farmer or rancher. And that scientific knowledge then helps drive better landscape decisions, both on a farm, but then in this case, a watershed.    What we are looking at here comes out of Iowa, Sac County, Iowa, and this is a tributary of Black Hawk Lake. There is a producer, family operation, Linda Richie. And you can see here there is a lot of headcut going on in this tributary of the stream, and this reservoir is impacted by sediment loadings and intermittent loadings coming off farm fields. Well the NRCS, using that scientific knowledge we get from those in-field monitoring systems and our agronomic expertise can come into this landscape and prescribe practices that could transform that tributary from what would originally be a real threat to that reservoir, in this case, ensuring that clean waters continue to flow into that reservoir for that city's water supply, but also critically important in protecting those farm fields. They can stay productive over time and provide for the economic sustainability of that farm.    Similarly, you can come to a farm field like this--this could be anywhere in the Midwest where you have conventional tillage going on, not much protection to that soil. You get a heavy rain event and you are seeing erosion occurring and the gullies forming, carrying off that farm field literally tons of sediment, pounds of nutrients that is leaving that farm field. Using, again, that science based solution approach, you can come in, change the tillage practices, put in cover crops, and you can see what the effect is in terms of protecting the water as the water leaves the field. It is not carrying the sediment. It is not carrying those farm inputs. It is leaving all those really valuable components of agriculture in place to grow the cash crops we depend upon for our food supply.    We have used a lot of these scientific tools. What we see here is an image of Arkansas, and we have identified with state partners there in Arkansas where are small scale watersheds, where we know there are risks based on the soils, risks to water quality in Arkansas. And so you see, for example, up in the northeast part of Arkansas, northwest part of Arkansas, there are different river basins, the St. Francis River basin in the northeast part of the state. Over there on the border with Oklahoma, you see the Illinois River system. And I am proud to say, because of the voluntary contributions of farmers in these communities and the USDA conservation programs this Committee has funded and authorized, we have gone into these and over the last several years, put in place conservation practices on over 80,000 acres of cropland. As a result of these proactive investments, these stream segments are being de-listed. They were de-listed in 2014 off of the State of Arkansas's list of impaired waters. And this isn't something that happened in spite of agriculture, this is something that happened because of agriculture. Because of the positive, targeted approach that producers took, and the voluntary incentive-based conservation programs delivered, we were able to clean up these waterways and provide cleaner water for communities, but also keep those productive lands in working agriculture.    Other success stories from around the country--this is out of South Dakota. This is out of south central South Dakota on the border with Nebraska, and it is the Keya Paha River watershed, and working counterclockwise from the upper right there, you can see where the watershed is located. And really, what the impact on these waters in the Keya Paha River was bacterial. There was too much E. coli and bacterial coliform colonies in the water column. And so we went in, we fenced up the creeks, we put in revegetated buffers. You can see in the lower left there revegetated buffers just 2 years after we went in and treated that watershed. And ultimately, partners there in the state went in there and monitored what was happening in the water columns. Beyond us modeling and saying we are doing good things, we are using science to actually track and give agriculture credit for the proactive solution, and you can see just over the course of 5 years, how we brought down and cut the E. coli bacterial counts by over \\2/3\\, bringing it to meet the state's water quality standards for bacteria.    In Oklahoma, another success story. This is out of Pond Creek in north central Oklahoma in Grant County. This is a 60 mile stream segment on the Pond Creek, and the entire Pond Creek was listed, the main injuries to their creek were low dissolved oxygen counts, which is really bad for aquatic species, turbidity, which is basically the cloudiness of the water, there is too much suspended sediment in the water, and nutrients, too much nitrogen and phosphorus in the water, and bacterial counts, four injuries.    What you see here is the state went in and monitored what was happening in this watershed, and you can see in 2006 that in terms of the turbidity, 45--almost \\1/2\\--50 percent of the monitoring results brought back exceeded the state water quality standards, and similarly for the bacterial counts, far in excess of what was tolerated under the state water quality requirements.    Well NRCS came in, invested over the course of about 8 years, over $4 million of private lands voluntary incentive-based conservation on the landscape. By 2014, in about 8 years, we have brought down--in terms of turbidity, there was zero exceedances of turbidity, and it met the state water quality standards for bacterial counts. This stream segment has been de-listed, and this is just one of 48 other success stories in Oklahoma in the past decade alone where USDA's conservation programs, working in concert and partnership with ranchers, are cleaning up the waters of Oklahoma and making those water systems and reservoirs healthier for both wildlife and for people.    Beyond targeting in small scale watersheds, what this is, is a map of a large watershed, a large basin. In this case, it is the Western Lake Erie Basin, which has been a national focus, in part, because of the concerns in the area and the lake area itself. Let me kind of unpack here what this picture is showing. We are using science to really understand what are the underlying properties of the soils in this basin, and in the watersheds there where it is colored red, kind of a pink color, those are soils where inherently they are very erosive, and also very porous. They are going to be a high risk of loss of sediment and nutrients from those farm fields from surface flow. The green are watersheds or areas where there is low risk for erosion potential. As we are going to see over time here is from 2005 to 2015, we put in place 1.1 million unique acres of conservation practices in the Western Lake Erie Basin. You are going to see the points over time where using science, we have helped to work with farmers to target the right conservation practices, and these are just for the soil erosion practices. You are going to see the points appear here, and there are also colors associated with these points.    In just about a decade, an enormous unleashed potential here of conservation delivering in this landscape, targeting those high risk soils, locking them down, avoiding loss by controlling and trapping sediments before they leave the farm fields, and this is just in the sediment. We have other layers we could have shown you also, looking at leaching potential where we have also targeted leaching practices. But we estimate that these practices alone over the course of a decade helped reduce or prevent upwards of 970,000 tons of sediment loss are now not flowing into Lake Erie, and upwards of 10.4 million pounds of nitrogen and 2.4 million pounds of phosphorus are now not flowing into Lake Erie because of all three conservation programs delivered by USDA.    In addition, science is looking at Western Lake Erie Basin, there is a lot going on here in this line. Let me try and unpack it here. We looked at producers in two main categories, what is the health of your soils? Are you gaining carbon or losing carbon, the two main factors. And we looked at what is your level of conservation stewardship, high level of conservation stewardship or low level of stewardship? Interestingly, just looking at corn yield, the difference between folks that had high levels of soil health, they are gaining carbon, versus producers that were losing carbon, those guys, in terms of corn yield, had about 15 percent higher corn yield per acre, those guys with healthy soils, than producers that had unhealthy soils. You are getting a boost in yield, but importantly, in terms of phosphorus application, anywhere from 40 to 50 percent less phosphorus applied per year, resulting in--if you look at loss, upwards of 90 percent less phosphorus loss per acre, per year. You are getting a 15 percent boost in corn, you are applying a lot less fertilizers, you are saving \\1/2\\ of your fertilizer bill, and you are losing 90 percent less phosphorus per acre. That, to me, is the definition of sustainable agriculture. You have economic sustainability, so your input costs are less. You are growing more corn, and you are protecting the waters of the local rivers and ultimately, Lake Erie.    But for us, what is next beyond targeting in small scale watersheds, large basins, we really are aware that the science is next is we have to start being able to target within fields. We have to understand where are the inherent risks within a crop field and where are we going to apply the right practice in the right place.    What you are seeing here is an example where NRCS's geospatial lab is able to develop these kind of maps for our field staffs where we look at the underlying soil profiles. What you see there on the left is a soil map of a farm field, and you can see it in the color coding the different soil types. And each one of the soil types has a different inherent capacity to both grow food and also lose both sediments and nutrients. And so on average, this producer applied 36 pounds of phosphorus per acre evenly across his farm fields. But again, you can see on the right hand side there on the soil types is a vast difference between both yield, so as low as 109 bushel per acre on average, or as high as 217 bushel per acre on average, depending on the soil type. But critically, the key there is what was left in the field? The phosphorus was applied. What left the field in grain? If you have a risky soil, even though you may have applied on average 36 pounds, only 15 of those pounds are leaving in the grain. The rest are left in the field, potentially to leach or to be lost through surface loss.    If you were to apply through using precision conservation techniques, it really then allows our planters to come in and really talk about both application of fertilizer using precision ag technologies, but also even talking about maybe in some parts of the field you don't want to even farm. Why plant?    Let's start talking about some of the other USDA programs, like the Conservation Reserve Program or the easement program, where no matter what you do, that corner of the field, this inclusion, will never be profitable. Stop planting it, stop wasting your money on fertilizer. Let's put it into a conservation use.    We are also coming up with a new tool, conservation planning tool. We are trying to upgrade NRCS's planning capacities, so we are piloting this year a new tool that we are calling the Resource Stewardship Evaluation. What this is, is a lot going on there, but basically what we are trying to bring to a farmer or rancher is a hiring product. We are trying to say what is your level of stewardship for your soils? What is your level of stewardship for both water quality and quantity, air quality, and wildlife habitat? It is five basic metrics.    NRCS has had quality planning criteria for all those metrics, underlying capacity of soil condition, index, your wind erosion, water erosion, et cetera. We have normalized all these different tools and metrics to give back a producer basically a printout of what their level of stewardship is, what is your baseline level of performance, and then we can start to run different scenarios, different options for the producer, and give them a plan to date. It gives them back real time information on what their current level of performance is, and then gives them real time information on what different options and scenarios they want to do, where they can take their performance.    A real world example, this is out of New Jersey where we piloted this last year. You can see there on the left is a leased field. This is a producer that had an annual lease, a 1 year lease and rented it from a local unit of government. And you can see the condition of this land was not very good, bad soils, highly eroded, and impacting local water supplies. We went out and ran the evaluation tool on his operation. You can see in the dark green or the lighter green where his state was, and he was really not meeting the NRCS recommendation levels for management. He was about to lose his lease. He went back to the local unit of government and said, ``Give me one more chance. I promise you I am going to do the right thing.'' He showed the lessor the NRCS evaluation and then what the plan to state was. He didn't just get a 1 year lease. The county actually gave him a 5 year lease. Now that land is going to be kept in production. He put it into a rotational beef grazing operation, protecting the waters, but importantly keeping this land in active agriculture, contributing to the local economy and the local food supply.    Switching now to innovation tools, where we are going with our tool capacity. Through this Committee's leadership, we have a program called the Conservation Innovation Grants Program, CIG, which in my view is really the venture capital, if you will, of conservation where we are really taking high risk, high reward opportunities, providing 50/50 cost-share grants to far more organizations, universities, nonprofits, for-profit companies, all trying to advance innovative solutions, new tools, and approaches for conservation.    The gentleman here is Dennis Carmen, and he is from the White River Irrigation District in Arkansas. He partnered up with a number of other farmers, as well as the Environmental Defense Fund, California Rights Commission, Win Walk International, and some other partner organizations, including American Carbon Registry, and what they have come up with is an enhanced way to grow rice. They were focused on methane emissions and trying to reduce methane emissions from rice production, but also trying to save water. And they piloted different management techniques, and they came up with an approach that would reduce methane emissions by \\1/2\\, a 50 percent reduction in methane gas emissions, but then also 18 percent water savings by maintaining or enhancing your yield in rice.    They then developed a protocol which they can then go to California, the California Air Resources Board has its greenhouse gas registry, where now they have developed the first in the nation ag crop based protocol where now rice farmers, whether they are in California or Arkansas, can sell credits to the California Air Resources Board. It is an additional revenue stream for rice country. This guy is not only able to grow rice, he is now able to sell methane credits to the California Air Board.    In Cape Cod, the Cape Cod Cranberry Growers Association, through CIG they have developed an online tool--it is an irrigation system management tool where they have centers out in the vines in the cranberry pond there where they are able to monitor in real time air temperature and different climatic conditions, and this is about better managing the irrigation of this cranberry production system. They are able to save per frost event, so they use sprinklers to spray the vines, much like wine, viticulture, you are protecting the vines during frost events, upwards of 9,000 gallons per acre, per frost event. Over the course of a growing season, this technology allows the producer to save upwards of 280,000 gallons per acre. Huge success story.    I talked about precision conservation. We have also invested in a lot of precision ag conservation solutions. This is an example. This is called Adapt-N. It is a collaborative of Cornell University, Pennsylvania State University, Perdue University, USDA Agricultural Research Service lab, Iowa Soybean Association, and some other partners. And there are different modules that we can provide for producers where it gives them real time information on their application of nitrogen. It gives them in-season, in-field nitrogen application advice that takes into account climate, near real time weather conditions, the previous applications of manures and fertilizers, their soil types, their management systems. Ultimately, you are really trying to make each field and sub-component of a field profitable, maxing out your profit and minimizing loss. In this case, loss being both money and nitrogen. In the early pilots, they were able to save upwards of 20 to 30 pounds of nitrogen per acre, while protecting and maintaining yield.    Finally, soil health, as we have talked about previously, the Midwest Cover Crop Council in partnership with the Conservation Technology Information Center, CTIC, they developed a multi-state online tool. It is called the Cover Crop Selection Tool, where it is for producers in Michigan, Ohio, Indiana, Wisconsin, and Minnesota. You can go online. They have identified where their operation is, what their management system is, what their business objectives are, and the tool then recommends different cocktails of cover crop seed mixtures that are appropriate for their climate and a cropping system, but also help them apply these cover crops in a way that will be even more effective. And as we have talked, cover crops are really important and part of the overall conservation soil health management system.    This is a picture of a field from Indiana. Rodney Rulon is the producer, and this is his field. He is part of a family operation where they manage in total 600,000 acres of row crop in Indiana. They have adopted cover crops and residue management systems no-till system of operation, and he believes he is saving over $100 an acre by using soil health management practices. This is saving wear and tear on his field, saving fuel costs, his energy costs, saving fertilizer and other input costs. He is saving $100 an acre a year in cash, that is over $600,000 a year more profit in a year for his family operation.    We have also talked about how soil health and these cover crops can improve the resiliency of crop fields, and how by increasing the soil organic matter, it really creates--turns those crop fields into reservoirs where it can actually hold and retain water. If you look at, hypothetically, all cropland in the United States, if you increase the soil organic matter in the cropland of the United States by one percent, you are able then to turn those crop fields into underground reservoirs. You will be able to hold in those--just a one percent increase would increase the water holding capacity of the soils to hold the same amount of water that flows over Niagara Falls for 150 days. That is a huge amount of water.    What we are seeing here is out of Brookings County, South Dakota, side by side fields. One used convention tillage on the right. On the left, no-till high residue management. And you can see after a 1" rain event, on the right you have heavy ponding. That producer has literally lost tons of topsoil. You can actually see where he has some of his beans coming up. They are out of the ground. On the left, the beans are looking really healthy, coming in. All the water has been captured and stored in the soils for later in the summer months when it is hot and humid, and that crop is going to need water.    The CTIC I mentioned earlier and ARS went out and surveyed producers in the Corn Belt, and if you recall back in 2012, there was a really severe drought, and asked one simple question: Did you use a part of your rotation, cover crop or not? And what they got back was okay, what was the yield, no cover crop, with cover crop. And what you see is corn yield in upwards of ten to fourteen percent boost in yield just by adopting cover crops as part of your rotation. Which to us is then a signal that those producers that have cover crops that are protecting the soils, feeding the soils, are improving yield and improving their bottom lines.    And finally, next generation partnerships. We have already talked, Mr. Chairman, Ms. Lujan Grisham, we have talked about the importance and the power of the Resource Conservation Partnership Program. I am really proud of NRCS's contribution to this, but more proud, frankly, about the robust response from the huge array of partners across the country. Sportsmen's organizations, universities, cities, counties, water utilities, hospitals, churches, I mean, you name it. There are over 2,000 different partner organizations that have come forward. Many of them have never worked in agriculture before, and they never really know how to approach agriculture. They are teaming up with ag associations, agribusinesses, farmers and ranchers themselves, to put in place really exciting conservation solutions.    Ms. Lujan Grisham, as you mentioned with the acequias, I am very happy to point out one of the examples of a project we already have rolling out here is the Acequias De Las Joyas, and this is an example that once you unlock the potential, they are ready to roll. And this is a partnership with the New Mexico Association of Conservation Districts, Interstate Stream Commission, they were ready to rock.    This is on a 300 year old acequia, you can see in this case it is an old, rusted out, inefficient or corrugated pipe, very leaky, not very effective. And we have already installed--you can see here a welded steel pipe. We are also relining the ditches, the irrigation systems with concrete, making it hyper-efficient. That means even more parciantes are going to be able to irrigate off this acequia simultaneously than previously, but also ultimately save a lot more water overall, so the system is going to be more successful. And this was installed in the end of January, so in a matter of months they were ready to roll and get solutions on the ground to be able to help this acequia for this coming growing season.    And then in South Carolina, we have had initially a pilot with the U.S. Endowment for Forestry &amp; Communities. What you are seeing here is the Smith family. This is Alva and Martin Smith in Marlboro County, South Carolina. They are third generation farmers, limited resource producers. They have 400 acres, much of it is forested. And what we are doing in partnership with the U.S. Endowment, U.S. Forest Service, Center for Heirs Property, Federation of Southern Cooperatives, and some other partners, we are first helping families such as the Smith family come in and establish clear title, clear ownership to their lands. Once they have clear title, that unlocks the capacity to come work with USDA. We can them come in with our financial assistance program and put in place really effective forest management practices that are going to improve the health of their forest for long-term timber production, giving them long-term economic benefits, but in the meantime, giving the community water quality benefits, fire protection benefits, air quality benefits, and at-risk species benefits.    And then finally, to me, which is really one of the historic partnership examples, and it is something that I hope they are going to be writing textbooks about, and this is really about how producers and a huge array of partners came forward and did something about the potential listing of sage-grouse out in the West. And I know it feels like this is past, but it is something that is so historic and something I am incredibly proud of. And this is something where NRCS was actually just a small component of it, so in the wake of the candidate decision where the sage-grouse is listed as the potential species for listing under the Endangered Species Act, we launched what was then the Sage-Grouse Initiative. We had over 100 different partner organizations come forward and be part of this, so it lost the NRCS identity and became a partner-led--really a huge success story.    This is a map. The green areas are inhabited sage-grouse range. The dark areas are what is called the priority areas for conservation. This was before we had a lot of really advanced tools. We had some pretty good tools for targeting, but we didn't have what we have now, what I will talk about in a second. What you are seeing here is then how the partnership, the locally led approach on this landscape targeted both financial systems, which are the aqua blue colored dots, and easements, which are the rust colored orange dots. And 100 percent of the practices were put in place in habited range. Three-quarters of the practices were in the priority areas for conservation. The scale is unprecedented. Just in 5 years, the partnership put in place 4.4 million acres of sustainable ranching practices across the West in 11 states. Over 1,100 producers stepped forward, volunteered, and want to be part of the solution.    What is here is then a new tool we just released last week. It is in partnership with Google. We are bringing Google Earth technologies that is allowing USDA conservation districts, conservation organizations to use the Google Earth capabilities. We have different data layers. I am not going to--don't worry, I am not going to walk you through what is going on here in this slide, but basically you can both work at a national level, regional level, state level, county level, field level, where you can zoom in, for example here, looking at what is going on in this landscape. In this case, one of the main threats for sage-grouse is conifer invasion, conifer encroachment, where these conifer and juniper are coming in and invading what was then at one point sage-grouse habitat, and turning it into a forested canopy. It is not very good for livestock. Conifer are really thirsty. They soak up all the ground water. They change the hydrology in those mountainous areas and choke out the seats and springs. But it turns out sage-grouse don't like trees either, because of the raptor perches, and as soon as the conifers come in, as little as a four percent tree canopy cover, the grouse are gone. We can use this tool, zoom in, identify areas where we want to treat. In this case, we come in like in 2012, you can see how we worked with a rancher, cut out his inholdings, cleared it of the sage brush. That is pretty impressive. What is more impressive, though, is when we radio card a sage-grouse hen in Oregon and she flew south down in urban California for the summer, you can see where she hung out in the summer. This is a radio plotted chart showing where the sage hen spent her time, kind of on a shopping trip around the inholding, where apparently she read up on our sage-grouse initiative, sage brush initiative literature where, yes, she understood where she needs to go, where you cut out the trees, that is where I am supposed to hang out. She flew in and you can see how she went around and took advantage of the new habitat that just had recently been opened up, returned both for ranching, but in this case, for critical wildlife habitat.    If you take this kind of success story and you multiply that 1,000, it is an example of how ranchers really delivered unprecedented solutions in this landscape on a voluntary basis, and it is the view for me and my colleagues at NRCS that it is not in spite of ranchers, it is because of the American rancher that we did not list the sage-grouse in September of 2015.    Likewise, in Montana, where ranchers in Sentinel and Big Centennial and Big Hole Valleys, there is a fish. In this case, it is arctic fluvial grayling at risk. It is a candidate for listing in Endangered Species Act. It was down to the last 50 mile segment of the stream, and we put in place voluntary conservation practices with the ranching community.    You can see in this chart over the course of 5 years, the populations, depending on which subpopulation you look at, either increased 500 to 900 percent in 5 years. Result, not listed under the Endangered Species Act because of voluntary incentive-based conservation.    The Oregon chub, this guy should be wearing a cape, actually, because he is the first fish species in American history not to be taken off the endangered species list because it went extinct, because we brought it back from the brink. Voluntary USDA conservation programs made this possible. It was down to less than the thousandth chub left in Oregon. Wetlands reserve practices and acres restored, but also upland water quality practices were put in place. Today's fish population is 140,000 chub and growing taken off the endangered species list because of voluntary acts of conservation.  </t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>412436</t>
   </si>
   <si>
-    <t>Dan Benishek</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Benishek. I thank you, Mr. Chairman.    Thanks, Chief Weller, for being here. I, too, think that this RCPP model is really the way to go, and to me, I have seen similar public-private partnerships do a much better job in delivering the service that they are trying to deliver than government regulators. To me, a lot of times in Washington when the government starts doing things from so far away, they don't take into account the regional and local concerns, and by having a public-private partnership, if it is for charitable works or nutrition or soil conservation, getting all the people involved and showing them how this is an advantage to them, providing leadership, that is really the way to go with all government, or a large majority of government services. I am happy that this seems to be successful.    The question I have is now that this is started, you have done a couple rounds of conservation projects. How is it going? How have things changed since you have been there? Tell me, have you learned anything? Is there anything that we should do differently with the next farm bill, or what are some of the challenges that you are seeing that maybe could make us do something even better the next time?</t>
   </si>
   <si>
@@ -178,9 +166,6 @@
     <t>412625</t>
   </si>
   <si>
-    <t>Rick W. Allen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman, and thank you, Chief, for joining us. Obviously, you are very proud of the things you have done and thank you for your presentation. Obviously the improvement you made in a lot of these properties is pretty amazing.    One of the things that you talked about how the working relationship that you have with farmers and ranchers, and how it has proven to be a great benefit to conservation. About \\1/3\\ of our forests, about 50 percent of the wood in the U.S. is owned by owners that aren't actively engaged in land management. And we know if they are not actively engaged in this process, that problems can happen like insects, diseases, infestations, any wildlife threats, and that sort of thing.    What is NRCS using to reach these owners and get them involved in the production, as well as conservation?</t>
   </si>
   <si>
@@ -217,19 +202,10 @@
     <t xml:space="preserve">    Mr. Weller. Thank you very much, sir, and I hope it gives this Committee some comfort, but also the taxpayer comfort that their resources are being used wisely and well. Thank you.    The Chairman. Thank you very much.    I would like to welcome our next panel of witnesses to the table. I will give you a few minutes to get settled in, and then we will proceed.    [Recess.]    The Chairman. I want to welcome our panel, and thank you so much for each of you of taking the time of coming here to present on this topic today. It is my pleasure to introduce our next panel of witnesses to the table.    We have Ms. Rachel Dawson, Senior Manager, Delaware River National Fish and Wildlife Foundation, Washington, D.C.; Mr. Frank Price, Owner of Frank and Sims Price Ranch in Sterling City, Texas; Mr. Rich Bowman, Director of Government Relations for The Nature Conservancy in Lansing, Michigan; and Mr. Kent Rodelius, Vice President of Agricultural Drainage Management Coalition in Willmar, Minnesota.    Welcome to each of you. Witnesses are reminded that the Members have your written testimony, and thank you for that. We had that ahead of time, and remind you to limit oral presentations to 5 minutes. All written statements are included in the record.    Ms. Dawson, please begin whenever you are ready.</t>
   </si>
   <si>
-    <t>Dawson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Dawson. Sure, thank you.    Chairman Thompson, Ranking Member Lujan Grisham, and Members of the Subcommittee, as the Senior Manager for the Delaware River Program, thank you for the opportunity to appear before you today to discuss the National Fish and Wildlife Foundation's, NFWF's, agriculture partnerships in the Delaware River watershed.    Established by Congress in 1984 to leverage public-private investments, NFWF currently works with 15 Federal partners and more than 45 corporate and foundation partners to conserve fish, wildlife, and their habitats. To date, we have funded nearly 15,500 conservation projects across all 50 states and U.S. territories, 900 of those alone in the last fiscal year.    Today, I would like to share with you some of our innovative work with farmers, ranchers, and foresters.    Three years ago, the William Penn Foundation of Philadelphia formed a partnership with NFWF, Drexel University's Academy of Natural Sciences, and the Open Space Institute to design and help implement an innovative voluntary initiative to improve water quality and habitat health across the Delaware River watershed.    The watershed crosses four state borders and provides drinking water for 15 million people, including in Trenton, Philadelphia, Wilmington, and \\1/2\\ the population of New York City, and it provides a vital habitat for fish and wildlife and unparalleled recreation.    To restore and protect these resources, the William Penn Foundation launched the Delaware River Watershed Initiative in 2014 with an initial 3 year, $35 million investment, which targeted eight sub-watersheds for focused restoration and conservation. Selected through an unprecedented assessment of on-the-ground potential to improve water quality, these sub-watersheds will serve as real life laboratories in which concentrated restoration and conservation will be strategically implemented, leveraged, and monitored.    Local partners have worked together to develop plans to implement the initiative, and accelerate adoption of practices that improve and protect water quality. Chief among the strategies for most of these sub-watersheds is expanded NRCS voluntary forest management and farm conservation practices.    One-size-fits-all conservation planning isn't an option for the region's diverse agriculture communities. Farms tend to be small, often fewer than 80 acres, and ownership is very complex. From the leased and rotating farmland in southern New Jersey to Plain Sect farmers wary of government cost-share programs in southeastern Pennsylvania, we have a great variability in landowner and producer dynamics. And despite its position in a notably urban corridor, the region serves as a smorgasbord of agriculture production. From the Garden State's vegetable farms, orchards, and nurseries, to Pennsylvania's mushrooms, dairy farms, and tobacco fields, and to New York's vast private forests critical for clean water, it truly has it all.    As the initiative partners got to work on strategies to address the challenges of such variability, the launch of the Regional Conservation Partnership Program, RCPP, was a remarkably timely opportunity tailor-made to deliver expanded conservation with a complimentary water quality benefit. Additionally, it was one that was particularly responsive to the aforementioned diversity.    In late 2014, NFWF in partnership with the American Farmland Trust and other partners was awarded a 5 year, $13 million RCPP to address water quality through the Delaware Watershed Working Lands Conservation Protection Partnership. Of particular importance, the partnership is leveraging $17.6 million in resources from partners for a conservation impact that amounts to more than $30.6 million.    There are four main reasons why we are excited about the RCPP opportunity in the Delaware watershed. First, the partnership helps efficiently expand delivery of important farm bill conservation and forest management programs in the region. Second, we are able to increase technical assistance in important places by growing the capacity of both traditional agriculture organizations like conservation districts, and partner nonprofits who are honing their ability to work with projects and landowners. Third, and perhaps most importantly, RCPP affords the partnership an opportunity to work with NRCS to design applicant criteria and adjust ranking so that cost-share funds are available to the projects and places that will have the most benefit for water quality. And finally, the RCPP in Delaware is an excellent example of the power of leveraging private and public resources to do the most good. We are able to help producers achieve their conservation goals, while also utilizing private funding to incentivize, for example, implementation by landowners who prefer not to use government funding or to test innovative methods like conservation vouchers, bonus payments, and higher rates of cost-share for implementing the highest priority practices.    In only its first few months, the project is on its way towards its initial 5 year goals to work with 1,100 landowners to implement conservation on at least 16,750 acres and to improve management of 20,000 acres of working forests. This partnership has the potential to dramatically accelerate conservation and to build a stronger, more capable network among the agricultural communities and local nonprofits in the region.    While my testimony today is focused on the Delaware River watershed, let me close by mentioning NFWF's numerous other leveraging efforts to advance voluntary conservation on working lands. Among them are the Monarch Butterfly Conservation Fund, a partnership in Kentucky with Altria to help transition tobacco growers to continuous no-till, and the Gulf Coast Migratory Bird Habitat Initiative. In the interest of time, those details are included in my written testimony.    And again, Mr. Chairman and distinguished Members of this Subcommittee, thank you for the opportunity to appear before you today, and I am happy to answer any questions you may have. Fifteen seconds.</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Price. My son and I operate a ranching enterprise, raising sheep and cattle, as well as a hunting operation based on Sterling City, Texas. My son and I have run the ranch, which dates back to 1876, with two goals in mind. The first is that the ranch must be operated on standalone basis, where we follow a strict budget and expect the operation to show an annual profit. Our second goal, like many other ranchers, is to leave the land in better condition for future generations. We serve to make our ranch land sustainable, which increases productivity, even after the land is utilized for grazing.    Ranching in west Texas comes with its fair share of difficult times. However, we have been able to keep our operation sustainable during those hard times by utilizing voluntary conservation programs and applying management practices that enhance the operation. Drought is a common problem in west Texas, and it requires adaptability and forward thinking to maintain the resources on the ranch.    In 2011 and 2012, we were challenged with one of the worst droughts in the generation, 100 consecutive days of 100\x0f or higher, a total rainfall of 5\\1/2\\" for the year. Water was virtually nonexistent, wildfires were prevalent, but we were able to survive and remain sustainable because of our grazing management practices and the opportunity to work with the NRCS's voluntary conservation programs to improve our ranch and make our grasslands resilient.    By utilizing the conservation planning of the NRCS and the National Grazing Lands Coalition, in addition to the development of innovative grazing technologies, we have increased perennial grasses on the ranch, improved ground cover, greatly reduced soil erosion due to both wind and water, reduced labor inputs, and ensured adequate forage for the livestock and wildlife populations on the ranch. Furthermore, by implementing these programs, we were able to keep expenses down by lowering feed, fuel, equipment, and labor costs, improving profitability of our operation.    Through the help of NRCS and voluntary conservation programs, we have been able to make our ranchland more drought tolerant. We have achieved that by installing groundwater storage systems connected by an extensive pipeline system, and improved our grasses on the ranch with utilizing brush control. We use a variety of ways to reduce brush by including prescribed burns, mechanical, and chemical treatment. We leave the large trees in place to create a savannah-type range land. The resulting increased water availability, grass cover, and shading properties of the savannah landscape improves the welfare for the livestock, wildlife, and the ranchmen alike. It is truly a win/win situation.    When wildfire came through our ranch in 2011, we had to rebuild miles of fencing. EQIP gave us the opportunity to reposition some of those fences to better adapt to our grazing program. One of the reasons EQIP has become popular among ranchers is because it is a working lands program, conservation programs that enhance the land's production do not limit its use for both the ranchers and conservation of our resources. CSP, Conservation Stewardship Program, is another program that I use to improve my land, water, and wildlife habitats.    The biggest point I would like to make is that voluntary part of conservation programs is what really makes it work for ranchers. We have had excellent success in using these programs, but just because the practices work for my family does not mean it is right for everybody. It is important that we keep these programs funded to safeguard their continued success, and above all else, these programs must stay voluntary.    I believe that economic activity and conservation go hand in hand, and we are always looking for new innovative conservation programs that will have tangible benefits for the environment and help improve our ranching lands. USDA's conservation programs have been a great asset to cattle producers and it is important that these programs continue to be implemented in the same practical, producer-friendly, voluntary manner for years to come. Together, we can sustain our country's natural resources and economic prosperity, ensuring our way of life for future generations.    I appreciate the opportunity to visit to you, and look forward to answering any questions you might have.</t>
-  </si>
-  <si>
-    <t>Rodelius</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bowman, go ahead and proceed whenever you are ready for 5 minutes.    Mr. Bowman. Great. Thank you for having me, Mr. Chairman, Ranking Member. I am really pleased to be here. I wasn't sure at 6 o'clock when it was 14\x0f and blowing snow sideways in Michigan that I was going to make it, but we did get here.    I want to give you a slightly different view on conservation and innovation at The Nature Conservancy. While we have agricultural projects all around the country and of other countries, I am going to focus on our work in Michigan.    One of the challenges that we face is that conservation isn't cheap. It has to be paid for, we make our living based upon the fact that members and donors believe that we are making a difference, and this is why they write us a check and give us that money. And so we ask ourselves all the time the question, how much conservation is enough, and how effectively are we actually getting conservation done? And as a result of that, we have made a lot of investment in recent years in tools, and rather than showing slides, I actually have up on the screen live one of the tools that we developed that we used in a project in a watershed in Michigan we did jointly with Coca Cola. They actually provided us some private funding for this, and they were interested in buying water offsets for the water that they were using to make product, and we said well, you can do it by paying farmers through agricultural conservation. They said no, you don't understand. We don't want to buy conservation practices, we want to buy gallons of water. And so what this tool actually allowed the technician to do out in the field is to sit down with the producer in their living room, just like this, and zoom into their farm and zoom into a field, and fairly quickly go in and select a producer's field. They went, did this, and then when they selected the field, the tool brings up a pull down menu. This predates Google Earth, so this is actually based on our GIS and the NRCS's soils maps and topography maps, and it tells you the size of the field and the relative parcels, and then you just go in and tell how you are currently farming the field. We will say conventional row crop agriculture, and the producer is considering switching to no-till, and when you tell it to calculate in about \\1/2\\ a second how much the increase or decrease in groundwater recharge will be as a result of that practice on that field. And this project was paying farmers $1.60 per thousand gallons, or something like that.    And so as Mr. Price mentioned, conservation ultimately is a business decision for the producer, and they decided whether or not they were willing to make that change, based upon that payment. And that actually allowed us to get the fields where we had either the most impact, because the payment was the highest, or fields where well we didn't get as much impact. We didn't pay very much for them, and in my written testimony near the end, I talked about what I think the next opportunities for conservation are. And if there is any weakness to the way we practice conservation right now, it is the fact that we pay for practices in hopes of an outcome, instead of paying for outcomes regardless of the practice. And in order to pay for outcomes, as Chief Weller so eloquently talked about, we have to develop the scientific knowledge to quantify those outcomes. Mr. Benishek, we refer to them as those response curves. If you take two aspirin to make your headache go away, don't 20 aspirin make it go away faster? Well, maybe not. Maybe there actually is an appropriate level of conservation to apply to a site. And then also really thinking about how we specifically deploy tools.    The last thing I would say is in order to really magnify our conservation impact, we have another tool that I am not showing you today, because it is a little more complicated, but we have put it into the hands of about 120 certified crop advisors in the Saginaw Valley of Michigan, and they are now talking about conservation as part of the farmers' entire management program. That is an RCPP project where we then make a referral to NRCS for the technical and financial assistance for those growers who are interested in those conservation practices.    And with that, I would be happy to answer any of your questions when we get to that portion.    Mr. Rodelius. Mr. Chairman and Ranking Member, thank you very much for this opportunity to speak with you today. I am here representing the Agricultural Drainage Management Coalition. I spent the last 30 years in the drainage industry traveling the Midwest. Today, I would like to give you a brief overview of water table management, and tell you about some exciting innovations.    So what is water table management, or subsurface tile drainage? There is a flash drive in your testimony I sent that has a video of how this really works.*---------------------------------------------------------------------------    * Editor's note: the video can be seen at: https://www.dropbox.com/s/yay97i8ampancx7/Ag%20Water%20Management%20101%20.mp4?dl=0.---------------------------------------------------------------------------    There are three important components to a system. Commonly, plastic pipes called tile are installed beneath the surface of agricultural fields to collect water. These tile lines are usually buried 3\x7f to 4\x7f deep and spaced about 40\x7f to 80\x7f apart. These lines are laterals that then run into main that conveys the water to the outlet. The outlet is where the main empties the water out of the field, usually into a ditch.    So why install tile? Why is this practice so widely used? Here are a few of the benefits.    The number one reason is increased yield. Farmers get a 15 to 25 percent increase in production. Tile reduces soil erosion and keeps the topsoil on the land. It stores water in the soil profile, and can reduce flooding. Farmers can plant earlier in the spring and harvest on time in the fall, and by managing their water, farmers are able to better utilize the potential of their seed and other inputs. It is far more economical to increase production through tile than to farm more acres.    The NRCS has long held that subsurface drainage is the best management practice. In the 1940s through the 1970s, the USDA had a vigorous cost-share program to encourage farmers to install subsurface drainage. It is estimated that during that time period, more than 50 million acres were artificially drained. These systems are still very effective in managing the water table, and increasing crop production.    The 1985 Federal Farm Bill introduced conservation compliance. A new swampbuster provision was adopted. Any producer in the farm program could no longer drain a wetland. Landowners have continued to install tile, but now for the purpose of managing water and crop production. Any current drainage work requires permits and is highly regulated by several agencies. Tile drainage is often viewed as the culprit for nitrogen and phosphorus in our water. You need look no further than the Des Moines Waterworks lawsuit. But most of these nutrients would move into our water bodies, even if there was no tile.    Currently, there are about 300 million acres of cropland in the U.S. About 100 million of those acres have some type of artificial drainage. But are there new and better ideas we should consider for drainage systems?    The ADMC was started in 2003 to find solutions and practices that improve and maintain agronomic production while producing environmental benefits. Today, we have developed new technology and innovations that allow us to install smart drainage. With these new systems, we can harvest and treat water before it exits the system. A variety of drainage water management practices can dramatically improve the environmental outcomes. These practices help to reduce the risk of farmers losing their crop, improve wildlife habitat, reduce the risk of flooding, and minimize the loss of nutrients. The following practices are smart drainage solutions. All of these innovations allow us to capture and treat water and remove significant amounts of nutrients. They are controlled drainage, saturated buffers, woodchip bioreactors, and sub-irrigation systems. We can also retrofit these practices on many acres of existing tile systems.    The NRCS and the ADMC have a great working relationship. In 2011, a Memorandum of Understanding was signed between the ADMC and the NRCS. This memorandum calls for the ADMC to train and certify technical service providers to help with the implementation of smart drainage technology for water management practices. Many of these practices are eligible for NRCS cost-share money.    In conclusion, the challenge we face is to feed nine billion people while maintaining water quality and economic viability on the farm. We need to implement these innovative conservation practices using smart systems of drainage water management. These practices are proven and cost-effective in enhancing water quality on working lands.    Thank you.</t>
@@ -820,11 +796,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -844,13 +818,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -870,13 +842,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -896,13 +866,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -922,13 +890,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -950,11 +916,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -974,13 +938,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1002,11 +964,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1026,13 +986,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1054,11 +1012,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1080,11 +1036,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1104,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1130,13 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1156,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1182,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1208,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1234,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1260,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1286,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1312,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1338,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1364,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1390,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1416,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1442,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1468,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1494,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1520,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1546,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1572,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1598,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1624,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1650,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1676,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1702,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1728,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1754,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1780,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1806,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1832,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
         <v>54</v>
-      </c>
-      <c r="H41" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1858,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1884,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1910,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1936,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1962,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1988,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2014,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2040,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>67</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2066,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2092,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2118,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>67</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2144,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2172,11 +2044,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2196,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2224,11 +2092,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2248,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2276,11 +2140,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2300,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2328,11 +2188,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2352,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2378,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2404,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2430,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2456,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2482,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2508,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2534,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2560,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2586,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2612,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2638,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2664,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2690,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2716,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2742,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2768,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2794,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2820,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2846,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2872,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2898,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2924,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2950,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2976,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3002,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3028,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3054,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3080,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3106,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3132,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3158,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3184,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3210,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3236,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
-      </c>
-      <c r="G95" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3262,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3288,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>53</v>
-      </c>
-      <c r="G97" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3314,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3340,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>53</v>
-      </c>
-      <c r="G99" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3366,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3392,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>53</v>
-      </c>
-      <c r="G101" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3418,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3444,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>53</v>
-      </c>
-      <c r="G103" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3470,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3496,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3524,11 +3292,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3548,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>67</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3576,11 +3340,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3600,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>67</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3628,11 +3388,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3654,11 +3412,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3678,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3704,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3732,11 +3484,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99388.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99388.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,15 +55,27 @@
     <t>412558</t>
   </si>
   <si>
+    <t>Lujan Grisham</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you, Mr. Chairman, and welcome, Chief Weller. I, too, appreciate that we are having a hearing on how to be more innovative and how to do that in a way that incentivizes ranchers and farmers, because clearly we need their participation. In fact, they are a very effective, willing partner here because they recognize the value of effective conservation programs.    Frankly, as I am preaching to the choir, I am sure farmers and ranchers are the backbone of conservation in America. They depend on the land for their livelihoods and seek to leave it better than they found it. I don't believe that anyone cares more about the land than farmers and ranchers. Farmers and ranchers across the country have sought to protect water quality, soil, agriculture productivity, forest management, and air quality by using tools available through the farm bill. Specifically, USDA's Natural Resources Conservation Service.    I have often mentioned the inadequate rainfall and drought conditions in my home State of New Mexico, and in the Southwest. Fortunately, there are conservation tools available to help southwestern producers cope with these dire situations. I have heard from several New Mexico producers that the Conservation Stewardship Program, which pays producers to adopt conservation activities to improve working lands, is helping to keep many farmers and ranchers on their lands and in business during the past drought. The most recent dire drought has been about 5 years, but we expect drought conditions to continue for decades longer.    In addition, the Regional Conservation Partnership Program, RCPP, which was created in the 2014 Farm Bill, has allowed the New Mexico Association of Conservation Districts to work with the New Mexico Acequia Association, and several New Mexico land-grants to restore historic acequias on agricultural lands, and maybe for some of the folks on the Committee and our viewers today, acequias are a traditional way of bringing water in arid communities, and it is directly from Spain, that irrigation method. This project helps improve water quantity and quality, and supports local families and communities served by the acequia system. I am looking forward to hearing more about conservation efforts that we can explore to help address water shortages and improve water quality.    Soils and soil health have been a recent topic of conversation, with last year being the International Year of Soils. This resource is critical to the health of the country and production of a quality food supply, and I thank the NRCS for promoting the issue. Our soils will be a valuable part of any future plans to combat global climate change. They have the tremendous ability to store carbon, and will only become more valuable in the future. I look forward to hearing from Chief Weller on ways to capitalize on this underused carbon sink.    One project I am excited to hear more about in New Mexico is the Innovative Tribal Conservation and GHG Management Project, which is part of the RCPP under the farm bill. Conservation really is an unsung hero when we think about American agriculture. Voluntary conservation programs through the farm bill are key to helping our farmers and ranchers succeed and to keep protecting our natural resources.    Again, I want to thank the Chairman for holding today's hearing, and I am certainly looking forward to hearing from the witnesses. Thank you.    The Chairman. I thank the gentlelady.    I now recognize the Ranking Member of the full Agriculture Committee, Mr. Peterson, for an opening statement.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Peterson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman. I will be brief. I want to thank you and the Ranking Member for holding this hearing.    The farm bill's conservation programs provide necessary tools for farmers and ranchers that preserve our natural resources and help us meet regulatory requirements. I have been a long-time supporter of voluntary conservation efforts, and these efforts have been useful in my area in a number of different ways.    One of the things I have been trying to do is get folks to understand that if we do drainage water management in the right way, we can not only do a better job of managing the water, but also get environmental benefits from being able to do this. In my part of the world, we have this flooding going on in the Red River Valley, and whenever we have a flood, it just goes across land and washes everything out and it all goes in the river, and it is a big mess. One thing I am trying to get people to look at is the benefits we can get if we do pattern tiling, where we try to manage this water underneath the ground instead of over top of the ground. We have a witness from my district here to explain that to people today, and I thank the Chairman for including that person. Also, we are going to, potentially, have a field listening session up in our part of the world to further explore this, so I appreciate the opportunity to have those folks here, and Chief, we are looking forward to your testimony. Welcome to the Committee.    The Chairman. I thank the gentleman. The chair requests that other Members submit their opening statements for the record so that the witnesses can begin their testimony to ensure that there is ample time for questions. The chair would also like to remind Members that they will be recognized for questioning in the order of seniority for Members who were present at the start of the hearing. After that, Members will be recognized in order of their arrival. I appreciate the Members' understanding.    Once again, Chief, thank you so much, I know it is difficult carving time out of what are busy days to be able to come here and to join us. Once again, I am pleased to welcome Chief Jason Weller, Natural Resources Conservation Service, U.S. Department of Agriculture, to the table, and Chief Weller, please go ahead and begin when you are ready. We have waived the normal 5 minutes of time to give you adequate time to present the information that you have before us.    So go ahead and begin when you are ready.</t>
   </si>
   <si>
+    <t>Weller</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weller. Good afternoon, Mr. Chairman, Ms. Lujan Grisham, and Members of the Committee. It is good to see you all again. I am really excited to be here today and I really commend the Committee. Mr. Chairman, the opportunity you are affording NRCS, but also the other witnesses here, to talk about all the really positive contributions that farmers and ranchers are making, and how much innovation is occurring right now in the private lands voluntary incentive-based conservation arena. It is unprecedented, and I hope to be able to touch upon it really briefly in my presentation, and I also very much appreciate your forbearance here to allow me to extend my remarks a few minutes and actually share with the Committee some slides that I have put together. This is, I guess, a fallout from the last hearing we had with you and the Committee on the soil health topic. This is really an expansion on that topic.    The way this is organized--and this has been really difficult for me because, in part, there is so much I want to talk about and there are so many awesome things that are happening right now. To get this condensed down to 10 minutes is pretty hard to do, so I am going to do my best.    This is grouped into three topic areas. First, is next level upgrade for science, next level upgrade for tools, and then next level upgrade for partnerships. And all of you talked about this in your opening statements, really touched upon what is happening in these three areas of science, tools, and partnerships.    NRCS started, as you know, over 80 years ago in the wake of the Dust Bowl, and we were at the very beginning, the very genesis, the first chief, Hugh Hammond Bennett, Dr. Bennett created a Soil Conservation Service. We were known as a technical, science-based agency, and what we shared was that scientific knowledge with that farmer and rancher to better manage, initially, their soils. It is really, then incumbent upon us to stay current with current edge of the science, state of the science, and continue to share that technical knowledge. And really, in everything that we do, whether it is through a program, through a conservation plan, it is sharing and imparting that technical knowledge on the landscape.    Really, what we are very focused on at NRCS then is ensuring we are not just current, state of the art, but even leading edge in many cases on the current state of agronomic and conservation science.    An example of what we have been working with our partners from edufield monitoring systems where we are really trying to understand beyond modeling--we are really trying to understand what is actually happening in real world agriculture and real world environments. When you put in place different crop rotation systems, residue management systems, tilling practices, nutrient management practices, what happens when you compare a treated field and an untreated field side by side? What happens to the surface water, and importantly, maybe you have installed a biorack as part of your ag drainage water management system. What happens to that tile water coming out of the line? Then over time, we can really scientifically, credibly understand when you tweak and manage your crop fields better, what is the ultimate result? Beyond something modeled, you are actually getting real world information, which you can then feed back to that land owner, to that customer, to that farmer or rancher. And that scientific knowledge then helps drive better landscape decisions, both on a farm, but then in this case, a watershed.    What we are looking at here comes out of Iowa, Sac County, Iowa, and this is a tributary of Black Hawk Lake. There is a producer, family operation, Linda Richie. And you can see here there is a lot of headcut going on in this tributary of the stream, and this reservoir is impacted by sediment loadings and intermittent loadings coming off farm fields. Well the NRCS, using that scientific knowledge we get from those in-field monitoring systems and our agronomic expertise can come into this landscape and prescribe practices that could transform that tributary from what would originally be a real threat to that reservoir, in this case, ensuring that clean waters continue to flow into that reservoir for that city's water supply, but also critically important in protecting those farm fields. They can stay productive over time and provide for the economic sustainability of that farm.    Similarly, you can come to a farm field like this--this could be anywhere in the Midwest where you have conventional tillage going on, not much protection to that soil. You get a heavy rain event and you are seeing erosion occurring and the gullies forming, carrying off that farm field literally tons of sediment, pounds of nutrients that is leaving that farm field. Using, again, that science based solution approach, you can come in, change the tillage practices, put in cover crops, and you can see what the effect is in terms of protecting the water as the water leaves the field. It is not carrying the sediment. It is not carrying those farm inputs. It is leaving all those really valuable components of agriculture in place to grow the cash crops we depend upon for our food supply.    We have used a lot of these scientific tools. What we see here is an image of Arkansas, and we have identified with state partners there in Arkansas where are small scale watersheds, where we know there are risks based on the soils, risks to water quality in Arkansas. And so you see, for example, up in the northeast part of Arkansas, northwest part of Arkansas, there are different river basins, the St. Francis River basin in the northeast part of the state. Over there on the border with Oklahoma, you see the Illinois River system. And I am proud to say, because of the voluntary contributions of farmers in these communities and the USDA conservation programs this Committee has funded and authorized, we have gone into these and over the last several years, put in place conservation practices on over 80,000 acres of cropland. As a result of these proactive investments, these stream segments are being de-listed. They were de-listed in 2014 off of the State of Arkansas's list of impaired waters. And this isn't something that happened in spite of agriculture, this is something that happened because of agriculture. Because of the positive, targeted approach that producers took, and the voluntary incentive-based conservation programs delivered, we were able to clean up these waterways and provide cleaner water for communities, but also keep those productive lands in working agriculture.    Other success stories from around the country--this is out of South Dakota. This is out of south central South Dakota on the border with Nebraska, and it is the Keya Paha River watershed, and working counterclockwise from the upper right there, you can see where the watershed is located. And really, what the impact on these waters in the Keya Paha River was bacterial. There was too much E. coli and bacterial coliform colonies in the water column. And so we went in, we fenced up the creeks, we put in revegetated buffers. You can see in the lower left there revegetated buffers just 2 years after we went in and treated that watershed. And ultimately, partners there in the state went in there and monitored what was happening in the water columns. Beyond us modeling and saying we are doing good things, we are using science to actually track and give agriculture credit for the proactive solution, and you can see just over the course of 5 years, how we brought down and cut the E. coli bacterial counts by over \\2/3\\, bringing it to meet the state's water quality standards for bacteria.    In Oklahoma, another success story. This is out of Pond Creek in north central Oklahoma in Grant County. This is a 60 mile stream segment on the Pond Creek, and the entire Pond Creek was listed, the main injuries to their creek were low dissolved oxygen counts, which is really bad for aquatic species, turbidity, which is basically the cloudiness of the water, there is too much suspended sediment in the water, and nutrients, too much nitrogen and phosphorus in the water, and bacterial counts, four injuries.    What you see here is the state went in and monitored what was happening in this watershed, and you can see in 2006 that in terms of the turbidity, 45--almost \\1/2\\--50 percent of the monitoring results brought back exceeded the state water quality standards, and similarly for the bacterial counts, far in excess of what was tolerated under the state water quality requirements.    Well NRCS came in, invested over the course of about 8 years, over $4 million of private lands voluntary incentive-based conservation on the landscape. By 2014, in about 8 years, we have brought down--in terms of turbidity, there was zero exceedances of turbidity, and it met the state water quality standards for bacterial counts. This stream segment has been de-listed, and this is just one of 48 other success stories in Oklahoma in the past decade alone where USDA's conservation programs, working in concert and partnership with ranchers, are cleaning up the waters of Oklahoma and making those water systems and reservoirs healthier for both wildlife and for people.    Beyond targeting in small scale watersheds, what this is, is a map of a large watershed, a large basin. In this case, it is the Western Lake Erie Basin, which has been a national focus, in part, because of the concerns in the area and the lake area itself. Let me kind of unpack here what this picture is showing. We are using science to really understand what are the underlying properties of the soils in this basin, and in the watersheds there where it is colored red, kind of a pink color, those are soils where inherently they are very erosive, and also very porous. They are going to be a high risk of loss of sediment and nutrients from those farm fields from surface flow. The green are watersheds or areas where there is low risk for erosion potential. As we are going to see over time here is from 2005 to 2015, we put in place 1.1 million unique acres of conservation practices in the Western Lake Erie Basin. You are going to see the points over time where using science, we have helped to work with farmers to target the right conservation practices, and these are just for the soil erosion practices. You are going to see the points appear here, and there are also colors associated with these points.    In just about a decade, an enormous unleashed potential here of conservation delivering in this landscape, targeting those high risk soils, locking them down, avoiding loss by controlling and trapping sediments before they leave the farm fields, and this is just in the sediment. We have other layers we could have shown you also, looking at leaching potential where we have also targeted leaching practices. But we estimate that these practices alone over the course of a decade helped reduce or prevent upwards of 970,000 tons of sediment loss are now not flowing into Lake Erie, and upwards of 10.4 million pounds of nitrogen and 2.4 million pounds of phosphorus are now not flowing into Lake Erie because of all three conservation programs delivered by USDA.    In addition, science is looking at Western Lake Erie Basin, there is a lot going on here in this line. Let me try and unpack it here. We looked at producers in two main categories, what is the health of your soils? Are you gaining carbon or losing carbon, the two main factors. And we looked at what is your level of conservation stewardship, high level of conservation stewardship or low level of stewardship? Interestingly, just looking at corn yield, the difference between folks that had high levels of soil health, they are gaining carbon, versus producers that were losing carbon, those guys, in terms of corn yield, had about 15 percent higher corn yield per acre, those guys with healthy soils, than producers that had unhealthy soils. You are getting a boost in yield, but importantly, in terms of phosphorus application, anywhere from 40 to 50 percent less phosphorus applied per year, resulting in--if you look at loss, upwards of 90 percent less phosphorus loss per acre, per year. You are getting a 15 percent boost in corn, you are applying a lot less fertilizers, you are saving \\1/2\\ of your fertilizer bill, and you are losing 90 percent less phosphorus per acre. That, to me, is the definition of sustainable agriculture. You have economic sustainability, so your input costs are less. You are growing more corn, and you are protecting the waters of the local rivers and ultimately, Lake Erie.    But for us, what is next beyond targeting in small scale watersheds, large basins, we really are aware that the science is next is we have to start being able to target within fields. We have to understand where are the inherent risks within a crop field and where are we going to apply the right practice in the right place.    What you are seeing here is an example where NRCS's geospatial lab is able to develop these kind of maps for our field staffs where we look at the underlying soil profiles. What you see there on the left is a soil map of a farm field, and you can see it in the color coding the different soil types. And each one of the soil types has a different inherent capacity to both grow food and also lose both sediments and nutrients. And so on average, this producer applied 36 pounds of phosphorus per acre evenly across his farm fields. But again, you can see on the right hand side there on the soil types is a vast difference between both yield, so as low as 109 bushel per acre on average, or as high as 217 bushel per acre on average, depending on the soil type. But critically, the key there is what was left in the field? The phosphorus was applied. What left the field in grain? If you have a risky soil, even though you may have applied on average 36 pounds, only 15 of those pounds are leaving in the grain. The rest are left in the field, potentially to leach or to be lost through surface loss.    If you were to apply through using precision conservation techniques, it really then allows our planters to come in and really talk about both application of fertilizer using precision ag technologies, but also even talking about maybe in some parts of the field you don't want to even farm. Why plant?    Let's start talking about some of the other USDA programs, like the Conservation Reserve Program or the easement program, where no matter what you do, that corner of the field, this inclusion, will never be profitable. Stop planting it, stop wasting your money on fertilizer. Let's put it into a conservation use.    We are also coming up with a new tool, conservation planning tool. We are trying to upgrade NRCS's planning capacities, so we are piloting this year a new tool that we are calling the Resource Stewardship Evaluation. What this is, is a lot going on there, but basically what we are trying to bring to a farmer or rancher is a hiring product. We are trying to say what is your level of stewardship for your soils? What is your level of stewardship for both water quality and quantity, air quality, and wildlife habitat? It is five basic metrics.    NRCS has had quality planning criteria for all those metrics, underlying capacity of soil condition, index, your wind erosion, water erosion, et cetera. We have normalized all these different tools and metrics to give back a producer basically a printout of what their level of stewardship is, what is your baseline level of performance, and then we can start to run different scenarios, different options for the producer, and give them a plan to date. It gives them back real time information on what their current level of performance is, and then gives them real time information on what different options and scenarios they want to do, where they can take their performance.    A real world example, this is out of New Jersey where we piloted this last year. You can see there on the left is a leased field. This is a producer that had an annual lease, a 1 year lease and rented it from a local unit of government. And you can see the condition of this land was not very good, bad soils, highly eroded, and impacting local water supplies. We went out and ran the evaluation tool on his operation. You can see in the dark green or the lighter green where his state was, and he was really not meeting the NRCS recommendation levels for management. He was about to lose his lease. He went back to the local unit of government and said, ``Give me one more chance. I promise you I am going to do the right thing.'' He showed the lessor the NRCS evaluation and then what the plan to state was. He didn't just get a 1 year lease. The county actually gave him a 5 year lease. Now that land is going to be kept in production. He put it into a rotational beef grazing operation, protecting the waters, but importantly keeping this land in active agriculture, contributing to the local economy and the local food supply.    Switching now to innovation tools, where we are going with our tool capacity. Through this Committee's leadership, we have a program called the Conservation Innovation Grants Program, CIG, which in my view is really the venture capital, if you will, of conservation where we are really taking high risk, high reward opportunities, providing 50/50 cost-share grants to far more organizations, universities, nonprofits, for-profit companies, all trying to advance innovative solutions, new tools, and approaches for conservation.    The gentleman here is Dennis Carmen, and he is from the White River Irrigation District in Arkansas. He partnered up with a number of other farmers, as well as the Environmental Defense Fund, California Rights Commission, Win Walk International, and some other partner organizations, including American Carbon Registry, and what they have come up with is an enhanced way to grow rice. They were focused on methane emissions and trying to reduce methane emissions from rice production, but also trying to save water. And they piloted different management techniques, and they came up with an approach that would reduce methane emissions by \\1/2\\, a 50 percent reduction in methane gas emissions, but then also 18 percent water savings by maintaining or enhancing your yield in rice.    They then developed a protocol which they can then go to California, the California Air Resources Board has its greenhouse gas registry, where now they have developed the first in the nation ag crop based protocol where now rice farmers, whether they are in California or Arkansas, can sell credits to the California Air Resources Board. It is an additional revenue stream for rice country. This guy is not only able to grow rice, he is now able to sell methane credits to the California Air Board.    In Cape Cod, the Cape Cod Cranberry Growers Association, through CIG they have developed an online tool--it is an irrigation system management tool where they have centers out in the vines in the cranberry pond there where they are able to monitor in real time air temperature and different climatic conditions, and this is about better managing the irrigation of this cranberry production system. They are able to save per frost event, so they use sprinklers to spray the vines, much like wine, viticulture, you are protecting the vines during frost events, upwards of 9,000 gallons per acre, per frost event. Over the course of a growing season, this technology allows the producer to save upwards of 280,000 gallons per acre. Huge success story.    I talked about precision conservation. We have also invested in a lot of precision ag conservation solutions. This is an example. This is called Adapt-N. It is a collaborative of Cornell University, Pennsylvania State University, Perdue University, USDA Agricultural Research Service lab, Iowa Soybean Association, and some other partners. And there are different modules that we can provide for producers where it gives them real time information on their application of nitrogen. It gives them in-season, in-field nitrogen application advice that takes into account climate, near real time weather conditions, the previous applications of manures and fertilizers, their soil types, their management systems. Ultimately, you are really trying to make each field and sub-component of a field profitable, maxing out your profit and minimizing loss. In this case, loss being both money and nitrogen. In the early pilots, they were able to save upwards of 20 to 30 pounds of nitrogen per acre, while protecting and maintaining yield.    Finally, soil health, as we have talked about previously, the Midwest Cover Crop Council in partnership with the Conservation Technology Information Center, CTIC, they developed a multi-state online tool. It is called the Cover Crop Selection Tool, where it is for producers in Michigan, Ohio, Indiana, Wisconsin, and Minnesota. You can go online. They have identified where their operation is, what their management system is, what their business objectives are, and the tool then recommends different cocktails of cover crop seed mixtures that are appropriate for their climate and a cropping system, but also help them apply these cover crops in a way that will be even more effective. And as we have talked, cover crops are really important and part of the overall conservation soil health management system.    This is a picture of a field from Indiana. Rodney Rulon is the producer, and this is his field. He is part of a family operation where they manage in total 600,000 acres of row crop in Indiana. They have adopted cover crops and residue management systems no-till system of operation, and he believes he is saving over $100 an acre by using soil health management practices. This is saving wear and tear on his field, saving fuel costs, his energy costs, saving fertilizer and other input costs. He is saving $100 an acre a year in cash, that is over $600,000 a year more profit in a year for his family operation.    We have also talked about how soil health and these cover crops can improve the resiliency of crop fields, and how by increasing the soil organic matter, it really creates--turns those crop fields into reservoirs where it can actually hold and retain water. If you look at, hypothetically, all cropland in the United States, if you increase the soil organic matter in the cropland of the United States by one percent, you are able then to turn those crop fields into underground reservoirs. You will be able to hold in those--just a one percent increase would increase the water holding capacity of the soils to hold the same amount of water that flows over Niagara Falls for 150 days. That is a huge amount of water.    What we are seeing here is out of Brookings County, South Dakota, side by side fields. One used convention tillage on the right. On the left, no-till high residue management. And you can see after a 1" rain event, on the right you have heavy ponding. That producer has literally lost tons of topsoil. You can actually see where he has some of his beans coming up. They are out of the ground. On the left, the beans are looking really healthy, coming in. All the water has been captured and stored in the soils for later in the summer months when it is hot and humid, and that crop is going to need water.    The CTIC I mentioned earlier and ARS went out and surveyed producers in the Corn Belt, and if you recall back in 2012, there was a really severe drought, and asked one simple question: Did you use a part of your rotation, cover crop or not? And what they got back was okay, what was the yield, no cover crop, with cover crop. And what you see is corn yield in upwards of ten to fourteen percent boost in yield just by adopting cover crops as part of your rotation. Which to us is then a signal that those producers that have cover crops that are protecting the soils, feeding the soils, are improving yield and improving their bottom lines.    And finally, next generation partnerships. We have already talked, Mr. Chairman, Ms. Lujan Grisham, we have talked about the importance and the power of the Resource Conservation Partnership Program. I am really proud of NRCS's contribution to this, but more proud, frankly, about the robust response from the huge array of partners across the country. Sportsmen's organizations, universities, cities, counties, water utilities, hospitals, churches, I mean, you name it. There are over 2,000 different partner organizations that have come forward. Many of them have never worked in agriculture before, and they never really know how to approach agriculture. They are teaming up with ag associations, agribusinesses, farmers and ranchers themselves, to put in place really exciting conservation solutions.    Ms. Lujan Grisham, as you mentioned with the acequias, I am very happy to point out one of the examples of a project we already have rolling out here is the Acequias De Las Joyas, and this is an example that once you unlock the potential, they are ready to roll. And this is a partnership with the New Mexico Association of Conservation Districts, Interstate Stream Commission, they were ready to rock.    This is on a 300 year old acequia, you can see in this case it is an old, rusted out, inefficient or corrugated pipe, very leaky, not very effective. And we have already installed--you can see here a welded steel pipe. We are also relining the ditches, the irrigation systems with concrete, making it hyper-efficient. That means even more parciantes are going to be able to irrigate off this acequia simultaneously than previously, but also ultimately save a lot more water overall, so the system is going to be more successful. And this was installed in the end of January, so in a matter of months they were ready to roll and get solutions on the ground to be able to help this acequia for this coming growing season.    And then in South Carolina, we have had initially a pilot with the U.S. Endowment for Forestry &amp; Communities. What you are seeing here is the Smith family. This is Alva and Martin Smith in Marlboro County, South Carolina. They are third generation farmers, limited resource producers. They have 400 acres, much of it is forested. And what we are doing in partnership with the U.S. Endowment, U.S. Forest Service, Center for Heirs Property, Federation of Southern Cooperatives, and some other partners, we are first helping families such as the Smith family come in and establish clear title, clear ownership to their lands. Once they have clear title, that unlocks the capacity to come work with USDA. We can them come in with our financial assistance program and put in place really effective forest management practices that are going to improve the health of their forest for long-term timber production, giving them long-term economic benefits, but in the meantime, giving the community water quality benefits, fire protection benefits, air quality benefits, and at-risk species benefits.    And then finally, to me, which is really one of the historic partnership examples, and it is something that I hope they are going to be writing textbooks about, and this is really about how producers and a huge array of partners came forward and did something about the potential listing of sage-grouse out in the West. And I know it feels like this is past, but it is something that is so historic and something I am incredibly proud of. And this is something where NRCS was actually just a small component of it, so in the wake of the candidate decision where the sage-grouse is listed as the potential species for listing under the Endangered Species Act, we launched what was then the Sage-Grouse Initiative. We had over 100 different partner organizations come forward and be part of this, so it lost the NRCS identity and became a partner-led--really a huge success story.    This is a map. The green areas are inhabited sage-grouse range. The dark areas are what is called the priority areas for conservation. This was before we had a lot of really advanced tools. We had some pretty good tools for targeting, but we didn't have what we have now, what I will talk about in a second. What you are seeing here is then how the partnership, the locally led approach on this landscape targeted both financial systems, which are the aqua blue colored dots, and easements, which are the rust colored orange dots. And 100 percent of the practices were put in place in habited range. Three-quarters of the practices were in the priority areas for conservation. The scale is unprecedented. Just in 5 years, the partnership put in place 4.4 million acres of sustainable ranching practices across the West in 11 states. Over 1,100 producers stepped forward, volunteered, and want to be part of the solution.    What is here is then a new tool we just released last week. It is in partnership with Google. We are bringing Google Earth technologies that is allowing USDA conservation districts, conservation organizations to use the Google Earth capabilities. We have different data layers. I am not going to--don't worry, I am not going to walk you through what is going on here in this slide, but basically you can both work at a national level, regional level, state level, county level, field level, where you can zoom in, for example here, looking at what is going on in this landscape. In this case, one of the main threats for sage-grouse is conifer invasion, conifer encroachment, where these conifer and juniper are coming in and invading what was then at one point sage-grouse habitat, and turning it into a forested canopy. It is not very good for livestock. Conifer are really thirsty. They soak up all the ground water. They change the hydrology in those mountainous areas and choke out the seats and springs. But it turns out sage-grouse don't like trees either, because of the raptor perches, and as soon as the conifers come in, as little as a four percent tree canopy cover, the grouse are gone. We can use this tool, zoom in, identify areas where we want to treat. In this case, we come in like in 2012, you can see how we worked with a rancher, cut out his inholdings, cleared it of the sage brush. That is pretty impressive. What is more impressive, though, is when we radio card a sage-grouse hen in Oregon and she flew south down in urban California for the summer, you can see where she hung out in the summer. This is a radio plotted chart showing where the sage hen spent her time, kind of on a shopping trip around the inholding, where apparently she read up on our sage-grouse initiative, sage brush initiative literature where, yes, she understood where she needs to go, where you cut out the trees, that is where I am supposed to hang out. She flew in and you can see how she went around and took advantage of the new habitat that just had recently been opened up, returned both for ranching, but in this case, for critical wildlife habitat.    If you take this kind of success story and you multiply that 1,000, it is an example of how ranchers really delivered unprecedented solutions in this landscape on a voluntary basis, and it is the view for me and my colleagues at NRCS that it is not in spite of ranchers, it is because of the American rancher that we did not list the sage-grouse in September of 2015.    Likewise, in Montana, where ranchers in Sentinel and Big Centennial and Big Hole Valleys, there is a fish. In this case, it is arctic fluvial grayling at risk. It is a candidate for listing in Endangered Species Act. It was down to the last 50 mile segment of the stream, and we put in place voluntary conservation practices with the ranching community.    You can see in this chart over the course of 5 years, the populations, depending on which subpopulation you look at, either increased 500 to 900 percent in 5 years. Result, not listed under the Endangered Species Act because of voluntary incentive-based conservation.    The Oregon chub, this guy should be wearing a cape, actually, because he is the first fish species in American history not to be taken off the endangered species list because it went extinct, because we brought it back from the brink. Voluntary USDA conservation programs made this possible. It was down to less than the thousandth chub left in Oregon. Wetlands reserve practices and acres restored, but also upland water quality practices were put in place. Today's fish population is 140,000 chub and growing taken off the endangered species list because of voluntary acts of conservation.  </t>
   </si>
   <si>
@@ -91,6 +106,12 @@
     <t>412436</t>
   </si>
   <si>
+    <t>Benishek</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Benishek. I thank you, Mr. Chairman.    Thanks, Chief Weller, for being here. I, too, think that this RCPP model is really the way to go, and to me, I have seen similar public-private partnerships do a much better job in delivering the service that they are trying to deliver than government regulators. To me, a lot of times in Washington when the government starts doing things from so far away, they don't take into account the regional and local concerns, and by having a public-private partnership, if it is for charitable works or nutrition or soil conservation, getting all the people involved and showing them how this is an advantage to them, providing leadership, that is really the way to go with all government, or a large majority of government services. I am happy that this seems to be successful.    The question I have is now that this is started, you have done a couple rounds of conservation projects. How is it going? How have things changed since you have been there? Tell me, have you learned anything? Is there anything that we should do differently with the next farm bill, or what are some of the challenges that you are seeing that maybe could make us do something even better the next time?</t>
   </si>
   <si>
@@ -166,6 +187,12 @@
     <t>412625</t>
   </si>
   <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman, and thank you, Chief, for joining us. Obviously, you are very proud of the things you have done and thank you for your presentation. Obviously the improvement you made in a lot of these properties is pretty amazing.    One of the things that you talked about how the working relationship that you have with farmers and ranchers, and how it has proven to be a great benefit to conservation. About \\1/3\\ of our forests, about 50 percent of the wood in the U.S. is owned by owners that aren't actively engaged in land management. And we know if they are not actively engaged in this process, that problems can happen like insects, diseases, infestations, any wildlife threats, and that sort of thing.    What is NRCS using to reach these owners and get them involved in the production, as well as conservation?</t>
   </si>
   <si>
@@ -202,10 +229,19 @@
     <t xml:space="preserve">    Mr. Weller. Thank you very much, sir, and I hope it gives this Committee some comfort, but also the taxpayer comfort that their resources are being used wisely and well. Thank you.    The Chairman. Thank you very much.    I would like to welcome our next panel of witnesses to the table. I will give you a few minutes to get settled in, and then we will proceed.    [Recess.]    The Chairman. I want to welcome our panel, and thank you so much for each of you of taking the time of coming here to present on this topic today. It is my pleasure to introduce our next panel of witnesses to the table.    We have Ms. Rachel Dawson, Senior Manager, Delaware River National Fish and Wildlife Foundation, Washington, D.C.; Mr. Frank Price, Owner of Frank and Sims Price Ranch in Sterling City, Texas; Mr. Rich Bowman, Director of Government Relations for The Nature Conservancy in Lansing, Michigan; and Mr. Kent Rodelius, Vice President of Agricultural Drainage Management Coalition in Willmar, Minnesota.    Welcome to each of you. Witnesses are reminded that the Members have your written testimony, and thank you for that. We had that ahead of time, and remind you to limit oral presentations to 5 minutes. All written statements are included in the record.    Ms. Dawson, please begin whenever you are ready.</t>
   </si>
   <si>
+    <t>Dawson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Dawson. Sure, thank you.    Chairman Thompson, Ranking Member Lujan Grisham, and Members of the Subcommittee, as the Senior Manager for the Delaware River Program, thank you for the opportunity to appear before you today to discuss the National Fish and Wildlife Foundation's, NFWF's, agriculture partnerships in the Delaware River watershed.    Established by Congress in 1984 to leverage public-private investments, NFWF currently works with 15 Federal partners and more than 45 corporate and foundation partners to conserve fish, wildlife, and their habitats. To date, we have funded nearly 15,500 conservation projects across all 50 states and U.S. territories, 900 of those alone in the last fiscal year.    Today, I would like to share with you some of our innovative work with farmers, ranchers, and foresters.    Three years ago, the William Penn Foundation of Philadelphia formed a partnership with NFWF, Drexel University's Academy of Natural Sciences, and the Open Space Institute to design and help implement an innovative voluntary initiative to improve water quality and habitat health across the Delaware River watershed.    The watershed crosses four state borders and provides drinking water for 15 million people, including in Trenton, Philadelphia, Wilmington, and \\1/2\\ the population of New York City, and it provides a vital habitat for fish and wildlife and unparalleled recreation.    To restore and protect these resources, the William Penn Foundation launched the Delaware River Watershed Initiative in 2014 with an initial 3 year, $35 million investment, which targeted eight sub-watersheds for focused restoration and conservation. Selected through an unprecedented assessment of on-the-ground potential to improve water quality, these sub-watersheds will serve as real life laboratories in which concentrated restoration and conservation will be strategically implemented, leveraged, and monitored.    Local partners have worked together to develop plans to implement the initiative, and accelerate adoption of practices that improve and protect water quality. Chief among the strategies for most of these sub-watersheds is expanded NRCS voluntary forest management and farm conservation practices.    One-size-fits-all conservation planning isn't an option for the region's diverse agriculture communities. Farms tend to be small, often fewer than 80 acres, and ownership is very complex. From the leased and rotating farmland in southern New Jersey to Plain Sect farmers wary of government cost-share programs in southeastern Pennsylvania, we have a great variability in landowner and producer dynamics. And despite its position in a notably urban corridor, the region serves as a smorgasbord of agriculture production. From the Garden State's vegetable farms, orchards, and nurseries, to Pennsylvania's mushrooms, dairy farms, and tobacco fields, and to New York's vast private forests critical for clean water, it truly has it all.    As the initiative partners got to work on strategies to address the challenges of such variability, the launch of the Regional Conservation Partnership Program, RCPP, was a remarkably timely opportunity tailor-made to deliver expanded conservation with a complimentary water quality benefit. Additionally, it was one that was particularly responsive to the aforementioned diversity.    In late 2014, NFWF in partnership with the American Farmland Trust and other partners was awarded a 5 year, $13 million RCPP to address water quality through the Delaware Watershed Working Lands Conservation Protection Partnership. Of particular importance, the partnership is leveraging $17.6 million in resources from partners for a conservation impact that amounts to more than $30.6 million.    There are four main reasons why we are excited about the RCPP opportunity in the Delaware watershed. First, the partnership helps efficiently expand delivery of important farm bill conservation and forest management programs in the region. Second, we are able to increase technical assistance in important places by growing the capacity of both traditional agriculture organizations like conservation districts, and partner nonprofits who are honing their ability to work with projects and landowners. Third, and perhaps most importantly, RCPP affords the partnership an opportunity to work with NRCS to design applicant criteria and adjust ranking so that cost-share funds are available to the projects and places that will have the most benefit for water quality. And finally, the RCPP in Delaware is an excellent example of the power of leveraging private and public resources to do the most good. We are able to help producers achieve their conservation goals, while also utilizing private funding to incentivize, for example, implementation by landowners who prefer not to use government funding or to test innovative methods like conservation vouchers, bonus payments, and higher rates of cost-share for implementing the highest priority practices.    In only its first few months, the project is on its way towards its initial 5 year goals to work with 1,100 landowners to implement conservation on at least 16,750 acres and to improve management of 20,000 acres of working forests. This partnership has the potential to dramatically accelerate conservation and to build a stronger, more capable network among the agricultural communities and local nonprofits in the region.    While my testimony today is focused on the Delaware River watershed, let me close by mentioning NFWF's numerous other leveraging efforts to advance voluntary conservation on working lands. Among them are the Monarch Butterfly Conservation Fund, a partnership in Kentucky with Altria to help transition tobacco growers to continuous no-till, and the Gulf Coast Migratory Bird Habitat Initiative. In the interest of time, those details are included in my written testimony.    And again, Mr. Chairman and distinguished Members of this Subcommittee, thank you for the opportunity to appear before you today, and I am happy to answer any questions you may have. Fifteen seconds.</t>
   </si>
   <si>
+    <t>Price</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Price. My son and I operate a ranching enterprise, raising sheep and cattle, as well as a hunting operation based on Sterling City, Texas. My son and I have run the ranch, which dates back to 1876, with two goals in mind. The first is that the ranch must be operated on standalone basis, where we follow a strict budget and expect the operation to show an annual profit. Our second goal, like many other ranchers, is to leave the land in better condition for future generations. We serve to make our ranch land sustainable, which increases productivity, even after the land is utilized for grazing.    Ranching in west Texas comes with its fair share of difficult times. However, we have been able to keep our operation sustainable during those hard times by utilizing voluntary conservation programs and applying management practices that enhance the operation. Drought is a common problem in west Texas, and it requires adaptability and forward thinking to maintain the resources on the ranch.    In 2011 and 2012, we were challenged with one of the worst droughts in the generation, 100 consecutive days of 100\x0f or higher, a total rainfall of 5\\1/2\\" for the year. Water was virtually nonexistent, wildfires were prevalent, but we were able to survive and remain sustainable because of our grazing management practices and the opportunity to work with the NRCS's voluntary conservation programs to improve our ranch and make our grasslands resilient.    By utilizing the conservation planning of the NRCS and the National Grazing Lands Coalition, in addition to the development of innovative grazing technologies, we have increased perennial grasses on the ranch, improved ground cover, greatly reduced soil erosion due to both wind and water, reduced labor inputs, and ensured adequate forage for the livestock and wildlife populations on the ranch. Furthermore, by implementing these programs, we were able to keep expenses down by lowering feed, fuel, equipment, and labor costs, improving profitability of our operation.    Through the help of NRCS and voluntary conservation programs, we have been able to make our ranchland more drought tolerant. We have achieved that by installing groundwater storage systems connected by an extensive pipeline system, and improved our grasses on the ranch with utilizing brush control. We use a variety of ways to reduce brush by including prescribed burns, mechanical, and chemical treatment. We leave the large trees in place to create a savannah-type range land. The resulting increased water availability, grass cover, and shading properties of the savannah landscape improves the welfare for the livestock, wildlife, and the ranchmen alike. It is truly a win/win situation.    When wildfire came through our ranch in 2011, we had to rebuild miles of fencing. EQIP gave us the opportunity to reposition some of those fences to better adapt to our grazing program. One of the reasons EQIP has become popular among ranchers is because it is a working lands program, conservation programs that enhance the land's production do not limit its use for both the ranchers and conservation of our resources. CSP, Conservation Stewardship Program, is another program that I use to improve my land, water, and wildlife habitats.    The biggest point I would like to make is that voluntary part of conservation programs is what really makes it work for ranchers. We have had excellent success in using these programs, but just because the practices work for my family does not mean it is right for everybody. It is important that we keep these programs funded to safeguard their continued success, and above all else, these programs must stay voluntary.    I believe that economic activity and conservation go hand in hand, and we are always looking for new innovative conservation programs that will have tangible benefits for the environment and help improve our ranching lands. USDA's conservation programs have been a great asset to cattle producers and it is important that these programs continue to be implemented in the same practical, producer-friendly, voluntary manner for years to come. Together, we can sustain our country's natural resources and economic prosperity, ensuring our way of life for future generations.    I appreciate the opportunity to visit to you, and look forward to answering any questions you might have.</t>
+  </si>
+  <si>
+    <t>Rodelius</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bowman, go ahead and proceed whenever you are ready for 5 minutes.    Mr. Bowman. Great. Thank you for having me, Mr. Chairman, Ranking Member. I am really pleased to be here. I wasn't sure at 6 o'clock when it was 14\x0f and blowing snow sideways in Michigan that I was going to make it, but we did get here.    I want to give you a slightly different view on conservation and innovation at The Nature Conservancy. While we have agricultural projects all around the country and of other countries, I am going to focus on our work in Michigan.    One of the challenges that we face is that conservation isn't cheap. It has to be paid for, we make our living based upon the fact that members and donors believe that we are making a difference, and this is why they write us a check and give us that money. And so we ask ourselves all the time the question, how much conservation is enough, and how effectively are we actually getting conservation done? And as a result of that, we have made a lot of investment in recent years in tools, and rather than showing slides, I actually have up on the screen live one of the tools that we developed that we used in a project in a watershed in Michigan we did jointly with Coca Cola. They actually provided us some private funding for this, and they were interested in buying water offsets for the water that they were using to make product, and we said well, you can do it by paying farmers through agricultural conservation. They said no, you don't understand. We don't want to buy conservation practices, we want to buy gallons of water. And so what this tool actually allowed the technician to do out in the field is to sit down with the producer in their living room, just like this, and zoom into their farm and zoom into a field, and fairly quickly go in and select a producer's field. They went, did this, and then when they selected the field, the tool brings up a pull down menu. This predates Google Earth, so this is actually based on our GIS and the NRCS's soils maps and topography maps, and it tells you the size of the field and the relative parcels, and then you just go in and tell how you are currently farming the field. We will say conventional row crop agriculture, and the producer is considering switching to no-till, and when you tell it to calculate in about \\1/2\\ a second how much the increase or decrease in groundwater recharge will be as a result of that practice on that field. And this project was paying farmers $1.60 per thousand gallons, or something like that.    And so as Mr. Price mentioned, conservation ultimately is a business decision for the producer, and they decided whether or not they were willing to make that change, based upon that payment. And that actually allowed us to get the fields where we had either the most impact, because the payment was the highest, or fields where well we didn't get as much impact. We didn't pay very much for them, and in my written testimony near the end, I talked about what I think the next opportunities for conservation are. And if there is any weakness to the way we practice conservation right now, it is the fact that we pay for practices in hopes of an outcome, instead of paying for outcomes regardless of the practice. And in order to pay for outcomes, as Chief Weller so eloquently talked about, we have to develop the scientific knowledge to quantify those outcomes. Mr. Benishek, we refer to them as those response curves. If you take two aspirin to make your headache go away, don't 20 aspirin make it go away faster? Well, maybe not. Maybe there actually is an appropriate level of conservation to apply to a site. And then also really thinking about how we specifically deploy tools.    The last thing I would say is in order to really magnify our conservation impact, we have another tool that I am not showing you today, because it is a little more complicated, but we have put it into the hands of about 120 certified crop advisors in the Saginaw Valley of Michigan, and they are now talking about conservation as part of the farmers' entire management program. That is an RCPP project where we then make a referral to NRCS for the technical and financial assistance for those growers who are interested in those conservation practices.    And with that, I would be happy to answer any of your questions when we get to that portion.    Mr. Rodelius. Mr. Chairman and Ranking Member, thank you very much for this opportunity to speak with you today. I am here representing the Agricultural Drainage Management Coalition. I spent the last 30 years in the drainage industry traveling the Midwest. Today, I would like to give you a brief overview of water table management, and tell you about some exciting innovations.    So what is water table management, or subsurface tile drainage? There is a flash drive in your testimony I sent that has a video of how this really works.*---------------------------------------------------------------------------    * Editor's note: the video can be seen at: https://www.dropbox.com/s/yay97i8ampancx7/Ag%20Water%20Management%20101%20.mp4?dl=0.---------------------------------------------------------------------------    There are three important components to a system. Commonly, plastic pipes called tile are installed beneath the surface of agricultural fields to collect water. These tile lines are usually buried 3\x7f to 4\x7f deep and spaced about 40\x7f to 80\x7f apart. These lines are laterals that then run into main that conveys the water to the outlet. The outlet is where the main empties the water out of the field, usually into a ditch.    So why install tile? Why is this practice so widely used? Here are a few of the benefits.    The number one reason is increased yield. Farmers get a 15 to 25 percent increase in production. Tile reduces soil erosion and keeps the topsoil on the land. It stores water in the soil profile, and can reduce flooding. Farmers can plant earlier in the spring and harvest on time in the fall, and by managing their water, farmers are able to better utilize the potential of their seed and other inputs. It is far more economical to increase production through tile than to farm more acres.    The NRCS has long held that subsurface drainage is the best management practice. In the 1940s through the 1970s, the USDA had a vigorous cost-share program to encourage farmers to install subsurface drainage. It is estimated that during that time period, more than 50 million acres were artificially drained. These systems are still very effective in managing the water table, and increasing crop production.    The 1985 Federal Farm Bill introduced conservation compliance. A new swampbuster provision was adopted. Any producer in the farm program could no longer drain a wetland. Landowners have continued to install tile, but now for the purpose of managing water and crop production. Any current drainage work requires permits and is highly regulated by several agencies. Tile drainage is often viewed as the culprit for nitrogen and phosphorus in our water. You need look no further than the Des Moines Waterworks lawsuit. But most of these nutrients would move into our water bodies, even if there was no tile.    Currently, there are about 300 million acres of cropland in the U.S. About 100 million of those acres have some type of artificial drainage. But are there new and better ideas we should consider for drainage systems?    The ADMC was started in 2003 to find solutions and practices that improve and maintain agronomic production while producing environmental benefits. Today, we have developed new technology and innovations that allow us to install smart drainage. With these new systems, we can harvest and treat water before it exits the system. A variety of drainage water management practices can dramatically improve the environmental outcomes. These practices help to reduce the risk of farmers losing their crop, improve wildlife habitat, reduce the risk of flooding, and minimize the loss of nutrients. The following practices are smart drainage solutions. All of these innovations allow us to capture and treat water and remove significant amounts of nutrients. They are controlled drainage, saturated buffers, woodchip bioreactors, and sub-irrigation systems. We can also retrofit these practices on many acres of existing tile systems.    The NRCS and the ADMC have a great working relationship. In 2011, a Memorandum of Understanding was signed between the ADMC and the NRCS. This memorandum calls for the ADMC to train and certify technical service providers to help with the implementation of smart drainage technology for water management practices. Many of these practices are eligible for NRCS cost-share money.    In conclusion, the challenge we face is to feed nine billion people while maintaining water quality and economic viability on the farm. We need to implement these innovative conservation practices using smart systems of drainage water management. These practices are proven and cost-effective in enhancing water quality on working lands.    Thank you.</t>
@@ -746,7 +782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,7 +790,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,2717 +812,3129 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
       <c r="H19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>57</v>
+      </c>
       <c r="H45" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G47" t="s">
+        <v>57</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G61" t="s">
+        <v>30</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G63" t="s">
+        <v>30</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
+        <v>30</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G65" t="s">
+        <v>30</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>75</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>75</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>75</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>75</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>75</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>75</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>75</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>49</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G95" t="s">
+        <v>57</v>
+      </c>
       <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>49</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G97" t="s">
+        <v>57</v>
+      </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>49</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G99" t="s">
+        <v>57</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>73</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>49</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G101" t="s">
+        <v>57</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>49</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G103" t="s">
+        <v>57</v>
+      </c>
       <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>75</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>75</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>71</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>71</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>73</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>75</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>127</v>
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99388.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99388.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412558</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Lujan Grisham</t>
   </si>
   <si>
@@ -104,6 +110,9 @@
   </si>
   <si>
     <t>412436</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Benishek</t>
@@ -782,7 +791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,7 +799,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,3126 +824,3312 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I39" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G45" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G47" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>71</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>75</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>73</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>73</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>73</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>75</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>75</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>75</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>75</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>78</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>75</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>78</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>75</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>78</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>75</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>75</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>75</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>75</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>75</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>75</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>75</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>78</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G95" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H95" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>73</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>76</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G97" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H97" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I97" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>73</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>76</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G99" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H99" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I99" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
-        <v>73</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>76</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G101" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H101" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s">
-        <v>73</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>76</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G103" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H103" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I103" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s">
-        <v>75</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>78</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s">
-        <v>75</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>78</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>71</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>74</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>71</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>74</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s">
-        <v>73</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>76</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s">
-        <v>75</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>78</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>139</v>
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
